--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A897D6B2-9439-4F95-8D34-64FE0ABC1A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C08362-49D0-4470-A5DB-FFA52222134C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="2388" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>ActionConfig\ActionCfg_CreateEffect.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffConfig\BuffCfg.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -782,99 +794,113 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C08362-49D0-4470-A5DB-FFA52222134C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2576B2-BC5E-4295-A6CE-B828223A490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2688" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
   <si>
     <t>##var</t>
   </si>
@@ -261,6 +261,193 @@
   </si>
   <si>
     <t>BuffConfig\BuffCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_DamageUnit.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_DamageUnit</t>
+  </si>
+  <si>
+    <t>ActionCfg_DamageUnitCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_FaceToCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_FaceTo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_FaceTo.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_RemoveEffectCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_RemoveEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_RemoveEffect.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_AddBuffCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_AddBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_AddBuff.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIconCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIconCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResConfig\ResIconCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffAddStackCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffAddStackCountCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_BuffAddStackCount.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffReduceStackCountCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffReduceStackCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_BuffReduceStackCount.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffResetDuration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffResetDurationCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_BuffResetDuration.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_RemoveBuffCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_RemoveBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_RemoveBuff.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_AttackAreaCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_AttackArea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_AttackArea.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改面向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加Buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除Buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少Buff层数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加Buff层数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置Buff剩余时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送子弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个伤害计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_DeathShowCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_DeathShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_DeathShow.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡表现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -617,19 +804,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.77734375" customWidth="1"/>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -780,129 +970,328 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="I16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2576B2-BC5E-4295-A6CE-B828223A490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153467C-8CB8-47E1-AD46-A292F273BE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2688" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t>##var</t>
   </si>
@@ -448,6 +448,72 @@
   </si>
   <si>
     <t>死亡表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitPropertyCfg</t>
+  </si>
+  <si>
+    <t>UnitPropertyCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitConfig\UnitPropertyCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertyType+level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayConfig\TowerCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayConfig\MonsterCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIConfig\AICfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AICfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AICfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterWaveCallCfg</t>
+  </si>
+  <si>
+    <t>GamePlayConfig\MonsterWaveCallCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterWaveCallCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waveRule+waveIndex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -804,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -817,7 +883,7 @@
     <col min="4" max="4" width="8.109375" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" customWidth="1"/>
     <col min="8" max="8" width="6.21875" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
@@ -998,300 +1064,376 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>116</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153467C-8CB8-47E1-AD46-A292F273BE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C62B8F-7874-41EB-8FF2-C863CAC2D384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
   <si>
     <t>##var</t>
   </si>
@@ -241,17 +241,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCfg_CreateEffect</t>
-  </si>
-  <si>
-    <t>ActionCfg_CreateEffectCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_CreateEffect.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffCfgCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -287,30 +276,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCfg_RemoveEffectCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_RemoveEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_RemoveEffect.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_AddBuffCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_AddBuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_AddBuff.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ResIconCfgCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -359,18 +324,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCfg_RemoveBuffCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_RemoveBuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_RemoveBuff.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_AttackAreaCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -466,30 +419,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TowerCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayConfig\TowerCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayConfig\MonsterCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AIConfig\AICfg.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -502,18 +431,185 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterWaveCallCfg</t>
-  </si>
-  <si>
-    <t>GamePlayConfig\MonsterWaveCallCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterWaveCallCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>waveRule+waveIndex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayBattleLevelCfg</t>
+  </si>
+  <si>
+    <t>GamePlayBattleLevelCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayConfig\GamePlayBattleLevelCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayConfig\TowerDefense\MonsterWaveCallRuleCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseCfg</t>
+  </si>
+  <si>
+    <t>GamePlayConfig\TowerDefense\GamePlayTowerDefenseCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayConfig\TowerDefense\TowerCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayConfig\TowerDefense\MonsterCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_MonsterWaveCallRuleCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_MonsterWaveCallRuleCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_TowerCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_TowerCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_MonsterCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_MonsterCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayPKCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayPKCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayConfig\PK\GamePlayPKCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_BuyTowerRefreshRuleCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_BuyTowerRefreshRuleCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayConfig\TowerDefense\BuyTowerRefreshRuleCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffRemoveCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffRemove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_BuffRemove.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffAddCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffAdd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_BuffAdd.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_EffectCreateCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_EffectCreate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_EffectCreate.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_EffectRemoveCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_EffectRemove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_EffectRemove.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_CoinAddCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_CoinAdd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_CoinAdd.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改修改货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法总索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法_塔防配置表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法_塔防_刷怪配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法_塔防_塔配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法_塔防_怪物配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法_塔防_可购买尺刷新规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法_PK配置表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI配置表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -870,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1036,16 +1132,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1064,33 +1160,33 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1149,7 +1245,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1166,7 +1262,7 @@
         <v>57</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1183,256 +1279,360 @@
         <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="I39" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>130</v>
+      <c r="F42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C62B8F-7874-41EB-8FF2-C863CAC2D384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B7EA28-F1C0-4540-A86A-8ECA0EC9DA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
   <si>
     <t>##var</t>
   </si>
@@ -288,30 +288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCfg_BuffAddStackCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_BuffAddStackCountCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_BuffAddStackCount.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_BuffReduceStackCountCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_BuffReduceStackCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_BuffReduceStackCount.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_BuffResetDuration</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -348,14 +324,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>减少Buff层数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加Buff层数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>重置Buff剩余时长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -610,6 +578,206 @@
   </si>
   <si>
     <t>AI配置表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffStackCountChgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffStackCountChg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Buff层数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_BuffStackCountChg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_TimelineReplaceCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_TimelineReplace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_TimelineReplace.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SetRecordIntCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SetRecordInt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_SetRecordInt.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SetRecordStringCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SetRecordString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_SetRecordString.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record int信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record string信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_TimelineJumpTimeCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_TimelineJumpTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_TimelineJumpTime.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_TimelinePlayCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_TimelinePlay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_TimelinePlay.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIConfigId+Order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_CallActorCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_CallActor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_CallActor.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤Actor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeConfig\AoeCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_CallAoeCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_CallAoe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_CallAoe.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤Aoe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline进行跳跃(对自身修改)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换为新的timeline(对自身修改)(仅buff中监控技能释放时使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放新的timeline(对自身或他人都有效)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_ENCategory</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_EN</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI_ENCategory</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_CN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI_CNCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI_TWCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_TWCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_CNCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextKeyValue\LocalizeConfig_Excel.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextKeyValue\LocalizeConfig_UI.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalSetting\GlobalSettingCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalSettingCfg</t>
+  </si>
+  <si>
+    <t>GlobalSettingCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -966,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1090,549 +1258,777 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
+        <v>191</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
+        <v>190</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>184</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>194</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>75</v>
+      </c>
       <c r="I36" s="2" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>152</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="2"/>
+        <v>164</v>
+      </c>
       <c r="I42" s="2" t="s">
-        <v>153</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B7EA28-F1C0-4540-A86A-8ECA0EC9DA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99820CE-A7F8-4D16-AC97-005B68F7D9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="202">
   <si>
     <t>##var</t>
   </si>
@@ -778,6 +778,22 @@
   </si>
   <si>
     <t>one</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugConnetCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugConnetCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalSetting\DebugConnetCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改网络连接的配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1134,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1362,672 +1378,690 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>96</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-    </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="I52" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F53" s="2"/>
       <c r="I53" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="I58" s="2" t="s">
+      <c r="F59" s="2"/>
+      <c r="I59" s="2" t="s">
         <v>145</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99820CE-A7F8-4D16-AC97-005B68F7D9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AEE15E-5EF8-4DC5-9EA4-638C9F6123CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="215">
   <si>
     <t>##var</t>
   </si>
@@ -288,18 +288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCfg_BuffResetDuration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_BuffResetDurationCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_BuffResetDuration.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_AttackAreaCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -320,14 +308,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>移除Buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置Buff剩余时长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>播放音效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -485,18 +465,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCfg_BuffRemoveCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_BuffRemove</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_BuffRemove.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_BuffAddCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -581,22 +549,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCfg_BuffStackCountChgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_BuffStackCountChg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改Buff层数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_BuffStackCountChg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_TimelineReplaceCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -794,6 +746,105 @@
   </si>
   <si>
     <t>修改网络连接的配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffDealCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_BuffDeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_BuffDeal.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Buff剩余时长，层数，或者移除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayConfig\TowerDefense\ChallengeLevelCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法_塔防_闯关模式配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_ChallengeLevelCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_ChallengeLevelCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitGlobalBuffCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitGlobalBuffCfg</t>
+  </si>
+  <si>
+    <t>GlobalBuffConfig/UnitGlobalBuffCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuffCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuffCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffConfig/PlayerGlobalBuffCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameGlobalBuffCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameGlobalBuffCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffConfig/GameGlobalBuffCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GlobalBuffAddCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GlobalBuffAdd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_GlobalBuffAdd.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加GlobalBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemConfig\ItemCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1150,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1274,86 +1325,86 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1362,707 +1413,773 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="E13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
+        <v>198</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
+        <v>201</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
+        <v>204</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>146</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="I53" s="2" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>145</v>
+      <c r="I60" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmgz0\Documents\git\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AEE15E-5EF8-4DC5-9EA4-638C9F6123CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113002BC-FB5D-4D23-A693-9A1CFD1235D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="222">
   <si>
     <t>##var</t>
   </si>
@@ -845,6 +845,31 @@
   </si>
   <si>
     <t>物品表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectConfigCategory</t>
+  </si>
+  <si>
+    <t>SelectObjectConfig</t>
+  </si>
+  <si>
+    <t>SelectObjectConfig\SelectObjectConfig.xlsx</t>
+  </si>
+  <si>
+    <t>DropRuleCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropRuleCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropRuleConfig\DropRuleCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1201,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1613,6 +1638,7 @@
       <c r="E25" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
@@ -1658,527 +1684,558 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-    </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D54" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="I56" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="I63" s="2" t="s">
+      <c r="F64" s="2"/>
+      <c r="I64" s="2" t="s">
         <v>137</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmgz0\Documents\git\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113002BC-FB5D-4D23-A693-9A1CFD1235D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD176654-D9DD-4EEC-926C-7DE45E552224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="230">
   <si>
     <t>##var</t>
   </si>
@@ -870,6 +870,38 @@
   </si>
   <si>
     <t>掉落表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改MoveTween目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_MoveTweenChgTarget.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_MoveTweenChgTarget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_MoveTweenChgTargetCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_EffectRecordPointLightningTrailTarget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_EffectRecordPointLightningTrailTargetCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig\ActionCfg_EffectRecordPointLightningTrailTarget.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录特效闪电拖尾点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1226,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1749,493 +1781,527 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>220</v>
+        <v>93</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>221</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="E56" s="2"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="2"/>
+        <v>99</v>
+      </c>
       <c r="I57" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F59" s="2"/>
       <c r="I59" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>195</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="2"/>
-      <c r="I64" s="2" t="s">
+      <c r="F66" s="2"/>
+      <c r="I66" s="2" t="s">
         <v>137</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD176654-D9DD-4EEC-926C-7DE45E552224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC42BAA-ECBA-4416-A5D1-56B75AE60D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
   <si>
     <t>##var</t>
   </si>
@@ -152,38 +152,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ResConfig\ResAudioCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResConfig\ResEffectCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResConfig\ResUnitCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitConfig\UnitCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BulletCfgCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BulletConfig\BulletCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillCfgCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SkillConfig\SkillCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UnitCfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -204,10 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TimelineConfig\TimelineCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_PlayAudio</t>
   </si>
   <si>
@@ -215,10 +187,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_PlayAudio.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_PlayAnimatorCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -226,10 +194,6 @@
     <t>ActionCfg_PlayAnimator</t>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_PlayAnimator.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_FireBullet</t>
   </si>
   <si>
@@ -237,10 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_FireBullet.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffCfgCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -249,14 +209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BuffConfig\BuffCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_DamageUnit.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_DamageUnit</t>
   </si>
   <si>
@@ -272,10 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_FaceTo.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ResIconCfgCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,10 +232,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ResConfig\ResIconCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_AttackAreaCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -296,10 +240,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_AttackArea.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改面向</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -344,10 +284,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_DeathShow.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>死亡表现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -359,18 +295,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UnitConfig\UnitPropertyCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>propertyType+level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AIConfig\AICfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AICfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -390,14 +318,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayConfig\GamePlayBattleLevelCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayConfig\TowerDefense\MonsterWaveCallRuleCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GamePlayTowerDefenseCfgCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -405,18 +325,6 @@
     <t>GamePlayTowerDefenseCfg</t>
   </si>
   <si>
-    <t>GamePlayConfig\TowerDefense\GamePlayTowerDefenseCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayConfig\TowerDefense\TowerCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayConfig\TowerDefense\MonsterCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TowerDefense_MonsterWaveCallRuleCfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -449,10 +357,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayConfig\PK\GamePlayPKCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TowerDefense_BuyTowerRefreshRuleCfgCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -461,10 +365,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayConfig\TowerDefense\BuyTowerRefreshRuleCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_BuffAddCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -473,10 +373,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_BuffAdd.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_EffectCreateCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -485,10 +381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_EffectCreate.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_EffectRemoveCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -497,10 +389,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_EffectRemove.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_CoinAddCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -509,10 +397,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_CoinAdd.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改修改货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -557,10 +441,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_TimelineReplace.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_SetRecordIntCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -569,10 +449,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_SetRecordInt.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_SetRecordStringCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -581,10 +457,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_SetRecordString.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>record int信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -601,10 +473,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_TimelineJumpTime.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_TimelinePlayCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -613,10 +481,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_TimelinePlay.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AIConfigId+Order</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -629,10 +493,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_CallActor.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>召唤Actor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -645,10 +505,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AoeConfig\AoeCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCfg_CallAoeCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -657,10 +513,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_CallAoe.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>召唤Aoe</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -710,18 +562,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TextKeyValue\LocalizeConfig_Excel.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextKeyValue\LocalizeConfig_UI.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GlobalSetting\GlobalSettingCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GlobalSettingCfg</t>
   </si>
   <si>
@@ -741,10 +581,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GlobalSetting\DebugConnetCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改网络连接的配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -757,18 +593,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ActionConfig\ActionCfg_BuffDeal.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改Buff剩余时长，层数，或者移除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayConfig\TowerDefense\ChallengeLevelCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>玩法_塔防_闯关模式配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -788,120 +616,271 @@
     <t>UnitGlobalBuffCfg</t>
   </si>
   <si>
+    <t>PlayerGlobalBuffCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuffCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameGlobalBuffCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameGlobalBuffCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GlobalBuffAddCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GlobalBuffAdd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加GlobalBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropRuleCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropRuleCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改MoveTween目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_MoveTweenChgTarget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_MoveTweenChgTargetCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_EffectRecordPointLightningTrailTarget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_EffectRecordPointLightningTrailTargetCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录特效闪电拖尾点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalSettingConfig/DebugConnetCfg.xlsx</t>
+  </si>
+  <si>
+    <t>GlobalSettingConfig/GlobalSettingCfg.xlsx</t>
+  </si>
+  <si>
+    <t>TextKeyValue/LocalizeConfig_Excel.xlsx</t>
+  </si>
+  <si>
+    <t>TextKeyValue/LocalizeConfig_UI.xlsx</t>
+  </si>
+  <si>
     <t>GlobalBuffConfig/UnitGlobalBuffCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerGlobalBuffCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerGlobalBuffCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GlobalBuffConfig/PlayerGlobalBuffCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameGlobalBuffCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameGlobalBuffCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GlobalBuffConfig/GameGlobalBuffCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_GlobalBuffAddCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_GlobalBuffAdd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_GlobalBuffAdd.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加GlobalBuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemConfig\ItemCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfigCategory</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig\SelectObjectConfig.xlsx</t>
-  </si>
-  <si>
-    <t>DropRuleCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropRuleCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropRuleConfig\DropRuleCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改MoveTween目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_MoveTweenChgTarget.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_MoveTweenChgTarget</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_MoveTweenChgTargetCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_EffectRecordPointLightningTrailTarget</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_EffectRecordPointLightningTrailTargetCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig\ActionCfg_EffectRecordPointLightningTrailTarget.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录特效闪电拖尾点</t>
+  </si>
+  <si>
+    <t>ResConfig/ResAudioCfg.xlsx</t>
+  </si>
+  <si>
+    <t>ResConfig/ResEffectCfg.xlsx</t>
+  </si>
+  <si>
+    <t>ResConfig/ResUnitCfg.xlsx</t>
+  </si>
+  <si>
+    <t>ResConfig/ResIconCfg.xlsx</t>
+  </si>
+  <si>
+    <t>UnitConfig/UnitCfg.xlsx</t>
+  </si>
+  <si>
+    <t>UnitConfig/UnitPropertyCfg.xlsx</t>
+  </si>
+  <si>
+    <t>BuffConfig/BuffCfg.xlsx</t>
+  </si>
+  <si>
+    <t>BulletConfig/BulletCfg.xlsx</t>
+  </si>
+  <si>
+    <t>AoeConfig/AoeCfg.xlsx</t>
+  </si>
+  <si>
+    <t>SkillConfig/SkillCfg.xlsx</t>
+  </si>
+  <si>
+    <t>TimelineConfig/TimelineCfg.xlsx</t>
+  </si>
+  <si>
+    <t>SelectObjectConfig/SelectObjectCfg.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_PlayAudio.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_PlayAnimator.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_FireBullet.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_MoveTweenChgTarget.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_EffectCreate.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_EffectRemove.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_EffectRecordPointLightningTrailTarget.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_DamageUnit.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_DeathShow.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_AttackArea.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_FaceTo.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_GlobalBuffAdd.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_BuffAdd.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_BuffDeal.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_CallActor.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_CallAoe.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_CoinAdd.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_TimelineReplace.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_TimelinePlay.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_TimelineJumpTime.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_SetRecordInt.xlsx</t>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_SetRecordString.xlsx</t>
+  </si>
+  <si>
+    <t>AIConfig/AICfg.xlsx</t>
+  </si>
+  <si>
+    <t>ItemConfig/ItemCfg.xlsx</t>
+  </si>
+  <si>
+    <t>DropRuleConfig/DropRuleCfg.xlsx</t>
+  </si>
+  <si>
+    <t>GamePlayConfig/GamePlayBattleLevelCfg.xlsx</t>
+  </si>
+  <si>
+    <t>GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx</t>
+  </si>
+  <si>
+    <t>GamePlayConfig/TowerDefense/MonsterWaveCallRuleCfg.xlsx</t>
+  </si>
+  <si>
+    <t>GamePlayConfig/TowerDefense/TowerCfg.xlsx</t>
+  </si>
+  <si>
+    <t>GamePlayConfig/TowerDefense/MonsterCfg.xlsx</t>
+  </si>
+  <si>
+    <t>GamePlayConfig/TowerDefense/BuyTowerRefreshRuleCfg.xlsx</t>
+  </si>
+  <si>
+    <t>GamePlayConfig/TowerDefense/ChallengeLevelCfg.xlsx</t>
+  </si>
+  <si>
+    <t>GamePlayConfig/PK/GamePlayPKCfg.xlsx</t>
+  </si>
+  <si>
+    <t>FunctionMenuConfig/FunctionMenuCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能菜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTweenCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTweenCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTweenConfig/MoveTweenCfg.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1258,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1382,10 +1361,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1396,10 +1375,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1410,10 +1389,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1424,10 +1403,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1438,10 +1417,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1452,10 +1431,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1470,37 +1449,37 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1512,797 +1491,836 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>200</v>
+        <v>230</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>221</v>
+      <c r="F56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>132</v>
+      <c r="B58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F62" s="2"/>
       <c r="I62" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>117</v>
+        <v>224</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>195</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F66" s="2"/>
+        <v>227</v>
+      </c>
       <c r="I66" s="2" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="I69" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC42BAA-ECBA-4416-A5D1-56B75AE60D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B18AEF-EC4E-4EB2-A000-9D8B6DD2D159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="279">
   <si>
     <t>##var</t>
   </si>
@@ -601,10 +601,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TowerDefense_ChallengeLevelCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TowerDefense_ChallengeLevelCfgCategory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -881,6 +877,175 @@
   </si>
   <si>
     <t>MoveTweenConfig/MoveTweenCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonConfig/SeasonInfoCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonInfoCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonInfoCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonConfig/SeasonChallengeLevelCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonChallengeLevelCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seasonId+index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonBringUpCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonConfig/SeasonBringUpCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeasonBringUpCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季信息总表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季pve模式表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季加成表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id+level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChallengeLevelCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameCfg_DoUnitActionCategory</t>
+  </si>
+  <si>
+    <t>ActionGameCfg_DoUnitAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对Unit对象，执行Action_Xxxx	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameConfig/ActionGameCfg_DoUnitAction.xlsx</t>
+  </si>
+  <si>
+    <t>ActionGameCfg_ChgGamePlayNumeric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameCfg_ChgGamePlayNumericCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameConfig/ActionGameCfg_ChgGamePlayNumeric.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Game属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GoToDieCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GoToDie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_GoToDie.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接进入死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_LearnUnitExtSkillCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_LearnUnitExtSkill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_LearnUnitExtSkill.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发Unit扩展技能学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillCastCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillCast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_SkillCast.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放特定技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillLearnCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillLearn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_SkillLearn.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习特定技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillForgetCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillForget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_SkillForget.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除特定技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1237,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1384,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1398,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1412,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1426,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1440,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1458,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>145</v>
@@ -1475,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="2"/>
       <c r="I12" s="2" t="s">
@@ -1491,20 +1656,20 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1516,44 +1681,44 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -1571,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -1585,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1599,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1613,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1627,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1641,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>75</v>
@@ -1658,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1672,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1687,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1701,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1715,35 +1880,35 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1757,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>63</v>
@@ -1774,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>64</v>
@@ -1791,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>65</v>
@@ -1799,19 +1964,19 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1825,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>66</v>
@@ -1842,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>67</v>
@@ -1850,19 +2015,19 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -1876,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>69</v>
@@ -1893,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>72</v>
@@ -1910,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>68</v>
@@ -1918,410 +2083,597 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D54" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I54" s="2" t="s">
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>109</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>169</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F62" s="2"/>
+        <v>219</v>
+      </c>
       <c r="I62" s="2" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F67" s="2"/>
       <c r="I67" s="2" t="s">
-        <v>152</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="I72" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="I69" s="2" t="s">
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="I74" s="2" t="s">
         <v>108</v>
       </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B18AEF-EC4E-4EB2-A000-9D8B6DD2D159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA2FEEF-5370-45AA-A0D8-B286E7A3D591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="293">
   <si>
     <t>##var</t>
   </si>
@@ -529,39 +529,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LocalizeConfig_Excel_ENCategory</t>
-  </si>
-  <si>
-    <t>LocalizeConfig_EN</t>
-  </si>
-  <si>
-    <t>LocalizeConfig_UI_ENCategory</t>
-  </si>
-  <si>
-    <t>LocalizeConfig_CN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_TW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_UI_CNCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_UI_TWCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_Excel_TWCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_Excel_CNCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GlobalSettingCfg</t>
   </si>
   <si>
@@ -1046,6 +1013,98 @@
   </si>
   <si>
     <t>移除特定技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailConfig/MailCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件模版表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailTypeCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailTypeCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailConfig/MailTypeCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件类型表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextKeyValue/LocalizeConfig_Code.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI_Category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_Category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Code_Category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResVideoCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResVideoCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResConfig/ResVideoCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialConfig/TutorialCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导视频表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalSettingConfig/ChannelCfg.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1402,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1526,125 +1585,123 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
+        <v>279</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="G12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1656,1024 +1713,1067 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>235</v>
+      <c r="I32" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>260</v>
+        <v>56</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>262</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="I66" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F67" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>226</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G71" s="2"/>
       <c r="I71" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="I73" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="I72" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="I74" s="2" t="s">
-        <v>108</v>
+      <c r="F76" s="2"/>
+      <c r="I76" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D77" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="I77" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I78" s="2" t="s">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="2"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" t="s">
-        <v>252</v>
-      </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="I84" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="I85" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="I87" s="2" t="s">
+        <v>289</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA2FEEF-5370-45AA-A0D8-B286E7A3D591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5F6038-41D5-4E92-95C9-707FB9390973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="310">
   <si>
     <t>##var</t>
   </si>
@@ -1105,6 +1105,74 @@
   </si>
   <si>
     <t>GlobalSettingConfig/ChannelCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionnaireCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionnaireCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionnaireConfig/QuestionnaireCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家技能表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConfig/PlayerSkillCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkillCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConsumeCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConsumeCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConfig/SkillConsumeCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能消耗配置表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GameObjectDeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_GameObjectDeal.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GameObjectDealCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObject处理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1461,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1902,877 +1970,959 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>186</v>
+        <v>304</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>226</v>
+        <v>299</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>96</v>
+        <v>306</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>253</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>259</v>
+        <v>121</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>261</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>262</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>265</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>159</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F66" s="2"/>
+        <v>210</v>
+      </c>
       <c r="I66" s="2" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G71" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="F71" s="2"/>
       <c r="I71" s="2" t="s">
-        <v>143</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F73" s="2"/>
+        <v>215</v>
+      </c>
       <c r="I73" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F76" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G76" s="2"/>
       <c r="I76" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F78" s="2"/>
       <c r="I78" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>242</v>
-      </c>
-      <c r="C81" t="s">
-        <v>243</v>
+      <c r="B81" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F81" s="2"/>
       <c r="I81" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>248</v>
+        <v>230</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D84" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F84" s="2"/>
-      <c r="I84" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D85" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="I85" s="2" t="s">
-        <v>277</v>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" t="s">
+        <v>243</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="I89" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="I90" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D87" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F87" s="2"/>
-      <c r="I87" s="2" t="s">
+      <c r="F92" s="2"/>
+      <c r="I92" s="2" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="I93" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5F6038-41D5-4E92-95C9-707FB9390973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD1C4D7-891C-4FE7-949E-8A94663E9992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="314">
   <si>
     <t>##var</t>
   </si>
@@ -1173,6 +1173,22 @@
   </si>
   <si>
     <t>GameObject处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualSkillCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConfig/ManualSkillCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1529,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2010,918 +2026,935 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>253</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-    </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="I71" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="I76" s="2" t="s">
+      <c r="G77" s="2"/>
+      <c r="I77" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="I78" s="2" t="s">
+      <c r="F79" s="2"/>
+      <c r="I79" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="I81" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>232</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F82" s="2"/>
       <c r="I82" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="2"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>242</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>243</v>
       </c>
-      <c r="D86" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D87" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-    </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D89" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F89" s="2"/>
-      <c r="I89" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F90" s="2"/>
       <c r="I90" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="I91" s="2" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D92" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F92" s="2"/>
-      <c r="I92" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F93" s="2"/>
       <c r="I93" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="I94" s="2" t="s">
         <v>296</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD1C4D7-891C-4FE7-949E-8A94663E9992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33345B9-1617-4892-820F-260C75AA6953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="322">
   <si>
     <t>##var</t>
   </si>
@@ -1189,6 +1189,38 @@
   </si>
   <si>
     <t>主动技能表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建飘字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_FloatingTextCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_FloatingText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_FloatingText.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_DamageChgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_DamageChg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_DamageChg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改伤害(在buff中才会有效)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1545,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2243,718 +2275,752 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>316</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>318</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>319</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>68</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>253</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>257</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>159</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="E71" s="2"/>
+        <v>159</v>
+      </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="2"/>
+        <v>212</v>
+      </c>
       <c r="I72" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F74" s="2"/>
       <c r="I74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G77" s="2"/>
+        <v>216</v>
+      </c>
       <c r="I77" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="I79" s="2" t="s">
+      <c r="F81" s="2"/>
+      <c r="I81" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F82" s="2"/>
-      <c r="I82" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D83" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="I84" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D84" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
-    </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="C87" s="2"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>242</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>243</v>
       </c>
-      <c r="D87" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D90" t="b">
-        <v>1</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="2"/>
-      <c r="I90" s="2" t="s">
+      <c r="F92" s="2"/>
+      <c r="I92" s="2" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D91" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F91" s="2"/>
-      <c r="I91" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F93" s="2"/>
       <c r="I93" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="I95" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D94" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F94" s="2"/>
-      <c r="I94" s="2" t="s">
+      <c r="F96" s="2"/>
+      <c r="I96" s="2" t="s">
         <v>296</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33345B9-1617-4892-820F-260C75AA6953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4D2161-D9CF-4E14-AC92-E283D195FF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="351">
   <si>
     <t>##var</t>
   </si>
@@ -867,14 +867,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>seasonId+index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SeasonBringUpCfg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -910,317 +902,442 @@
     <t>ActionGameCfg_DoUnitActionCategory</t>
   </si>
   <si>
+    <t xml:space="preserve">对Unit对象，执行Action_Xxxx	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameConfig/ActionGameCfg_DoUnitAction.xlsx</t>
+  </si>
+  <si>
+    <t>ActionGameCfg_ChgGamePlayNumeric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameCfg_ChgGamePlayNumericCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameConfig/ActionGameCfg_ChgGamePlayNumeric.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Game属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GoToDieCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GoToDie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_GoToDie.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接进入死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_LearnUnitExtSkillCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_LearnUnitExtSkill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_LearnUnitExtSkill.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发Unit扩展技能学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillCastCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillCast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_SkillCast.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放特定技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillLearnCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillLearn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_SkillLearn.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习特定技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillForgetCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_SkillForget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_SkillForget.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除特定技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailConfig/MailCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件模版表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailTypeCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailTypeCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailConfig/MailTypeCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件类型表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextKeyValue/LocalizeConfig_Code.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_UI_Category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Excel_Category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_Code_Category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResVideoCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResVideoCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResConfig/ResVideoCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TutorialConfig/TutorialCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导视频表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannelCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalSettingConfig/ChannelCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionnaireCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionnaireCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionnaireConfig/QuestionnaireCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家技能表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConfig/PlayerSkillCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkillCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConsumeCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConsumeCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConfig/SkillConsumeCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能消耗配置表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GameObjectDeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_GameObjectDeal.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GameObjectDealCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObject处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualSkillCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualSkillCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConfig/ManualSkillCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建飘字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_FloatingTextCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_FloatingText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_FloatingText.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_DamageChgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_DamageChg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_DamageChg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改伤害(在buff中才会有效)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seasonId+index+pveLevelDifficulty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index+pveLevelDifficulty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIFollowHeadCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIFollowHeadCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIConfig/UIFollowHeadCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI跟随配置表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemUpgradeCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemUpgradeCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemConfig/ItemUpgradeCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemGiftCfgCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemGiftCfg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemConfig/ItemGiftCfg.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品升级表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCfgId+level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceUnitCfgId处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_ReplaceUnitCfgId.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_ReplaceUnitCfgId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_ReplaceUnitCfgIdCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GlobalBuffAddImmediatelyCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCfg_GlobalBuffAddImmediately</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig/ActionCfg_GlobalBuffAddImmediately.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加GameAction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ActionGameCfg_DoUnitAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对Unit对象，执行Action_Xxxx	</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionGameConfig/ActionGameCfg_DoUnitAction.xlsx</t>
-  </si>
-  <si>
-    <t>ActionGameCfg_ChgGamePlayNumeric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionGameCfg_ChgGamePlayNumericCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionGameConfig/ActionGameCfg_ChgGamePlayNumeric.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改Game属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_GoToDieCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_GoToDie</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig/ActionCfg_GoToDie.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接进入死亡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_LearnUnitExtSkillCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_LearnUnitExtSkill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig/ActionCfg_LearnUnitExtSkill.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发Unit扩展技能学习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_SkillCastCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_SkillCast</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig/ActionCfg_SkillCast.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放特定技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_SkillLearnCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_SkillLearn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig/ActionCfg_SkillLearn.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习特定技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_SkillForgetCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_SkillForget</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig/ActionCfg_SkillForget.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除特定技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailConfig/MailCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件模版表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailTypeCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailTypeCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailConfig/MailTypeCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件类型表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextKeyValue/LocalizeConfig_Code.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_UI_Category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_Excel_Category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_Code_Category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResVideoCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResVideoCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResConfig/ResVideoCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TutorialCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TutorialCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TutorialConfig/TutorialCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导视频表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannelCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannelCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GlobalSettingConfig/ChannelCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuestionnaireCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuestionnaireCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuestionnaireConfig/QuestionnaireCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>问卷表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家技能表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillConfig/PlayerSkillCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerSkillCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerSkillCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillConsumeCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillConsumeCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillConfig/SkillConsumeCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能消耗配置表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_GameObjectDeal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig/ActionCfg_GameObjectDeal.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_GameObjectDealCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameObject处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManualSkillCfgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManualSkillCfg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillConfig/ManualSkillCfg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动技能表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建飘字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_FloatingTextCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_FloatingText</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig/ActionCfg_FloatingText.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_DamageChgCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCfg_DamageChg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig/ActionCfg_DamageChg.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改伤害(在buff中才会有效)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameCfg_CreateGlobalUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameCfg_CreateGlobalUnitCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameConfig/ActionGameCfg_CreateGlobalUnit.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新Unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameCfg_RewardGamePlayTowerDefenseCards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameCfg_RewardGamePlayTowerDefenseCardsCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionGameConfig/ActionGameCfg_RewardGamePlayTowerDefenseCards.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外获得GamePlayTowerDefense卡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1577,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1701,10 +1818,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1715,24 +1832,24 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1747,16 +1864,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1889,16 +2006,16 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -2036,58 +2153,58 @@
         <v>184</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -2139,890 +2256,1017 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>187</v>
+        <v>335</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>63</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>316</v>
+        <v>163</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>314</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>194</v>
+        <v>314</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>318</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>320</v>
+        <v>194</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>321</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>72</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>253</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>142</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>257</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>261</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>109</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>159</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>212</v>
+        <v>327</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>102</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74" s="2"/>
+        <v>211</v>
+      </c>
       <c r="I74" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F78" s="2"/>
       <c r="I78" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G79" s="2"/>
+        <v>78</v>
+      </c>
       <c r="I79" s="2" t="s">
-        <v>143</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F81" s="2"/>
+        <v>216</v>
+      </c>
       <c r="I81" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D84" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F84" s="2"/>
-      <c r="I84" s="2" t="s">
-        <v>237</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="I83" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="I85" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="I88" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D85" t="b">
+      <c r="C89" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" t="b">
         <v>0</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="2"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>242</v>
-      </c>
-      <c r="C89" t="s">
-        <v>243</v>
-      </c>
-      <c r="D89" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D92" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F92" s="2"/>
-      <c r="I92" s="2" t="s">
-        <v>273</v>
-      </c>
+      <c r="C91" s="2"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
-        <v>274</v>
+      <c r="B93" t="s">
+        <v>240</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>275</v>
+        <v>342</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F93" s="2"/>
+        <v>242</v>
+      </c>
       <c r="I93" s="2" t="s">
-        <v>277</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F95" s="2"/>
+        <v>245</v>
+      </c>
       <c r="I95" s="2" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="I98" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="I99" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="I101" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="I102" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D96" t="b">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F96" s="2"/>
-      <c r="I96" s="2" t="s">
-        <v>296</v>
-      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="I104" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
